--- a/src/main/java/TestData/Controller.xlsx
+++ b/src/main/java/TestData/Controller.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="17160" windowHeight="5328"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="15960" windowHeight="5172"/>
   </bookViews>
   <sheets>
-    <sheet name="Crig" sheetId="2" r:id="rId1"/>
-    <sheet name="Detailpage" sheetId="1" r:id="rId2"/>
+    <sheet name="Detailpage" sheetId="1" r:id="rId1"/>
+    <sheet name="Crig" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:J16"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
   <si>
     <t>Title</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>mngr258374</t>
+  </si>
+  <si>
+    <t>TcName</t>
   </si>
 </sst>
 </file>
@@ -449,9 +452,374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="37.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1">
+        <v>30654</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>19703</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2">
+        <v>0.2</v>
+      </c>
+      <c r="M2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1">
+        <v>30655</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>19703</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3">
+        <v>0.2</v>
+      </c>
+      <c r="M3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1">
+        <v>30656</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>19703</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4">
+        <v>0.2</v>
+      </c>
+      <c r="M4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1">
+        <v>30657</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>19703</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5">
+        <v>0.2</v>
+      </c>
+      <c r="M5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1">
+        <v>30658</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>19703</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6">
+        <v>0.2</v>
+      </c>
+      <c r="M6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1">
+        <v>30659</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <v>19703</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7">
+        <v>0.2</v>
+      </c>
+      <c r="M7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1">
+        <v>30660</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>19703</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8">
+        <v>0.2</v>
+      </c>
+      <c r="M8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1">
+        <v>30661</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>19703</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9">
+        <v>0.2</v>
+      </c>
+      <c r="M9">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -511,370 +879,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="37.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1">
-        <v>30654</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2">
-        <v>19703</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2">
-        <v>0.2</v>
-      </c>
-      <c r="L2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1">
-        <v>30655</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3">
-        <v>19703</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3">
-        <v>0.2</v>
-      </c>
-      <c r="L3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1">
-        <v>30656</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4">
-        <v>19703</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4">
-        <v>0.2</v>
-      </c>
-      <c r="L4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1">
-        <v>30657</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5">
-        <v>19703</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5">
-        <v>0.2</v>
-      </c>
-      <c r="L5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1">
-        <v>30658</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6">
-        <v>19703</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6">
-        <v>0.2</v>
-      </c>
-      <c r="L6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1">
-        <v>30659</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7">
-        <v>19703</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7">
-        <v>0.2</v>
-      </c>
-      <c r="L7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="1">
-        <v>30660</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8">
-        <v>19703</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8">
-        <v>0.2</v>
-      </c>
-      <c r="L8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1">
-        <v>30661</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9">
-        <v>19703</v>
-      </c>
-      <c r="J9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9">
-        <v>0.2</v>
-      </c>
-      <c r="L9">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>

--- a/src/main/java/TestData/Controller.xlsx
+++ b/src/main/java/TestData/Controller.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J16"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
   <si>
     <t>Title</t>
   </si>
@@ -28,9 +27,6 @@
     <t>Tag</t>
   </si>
   <si>
-    <t>ZipCode</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
@@ -88,15 +84,6 @@
     <t>TCID</t>
   </si>
   <si>
-    <t>TCFlag</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>ussername</t>
   </si>
   <si>
@@ -112,7 +99,40 @@
     <t>mngr258374</t>
   </si>
   <si>
-    <t>TcName</t>
+    <t>CrigList</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Brand New LCD Screen I have Other Model also If You Buy More Then 1 I will Do Some Discount</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
 </sst>
 </file>
@@ -148,9 +168,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,361 +473,336 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="37.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
         <v>14</v>
       </c>
       <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>30654</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="I2">
+        <v>19703</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2">
+        <v>0.2</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="1">
-        <v>30654</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1">
+        <v>30655</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3">
+        <v>19703</v>
+      </c>
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K3">
+        <v>0.2</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="J2">
+      <c r="F4" s="1">
+        <v>30656</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4">
         <v>19703</v>
       </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2">
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4">
         <v>0.2</v>
       </c>
-      <c r="M2">
+      <c r="L4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1">
+        <v>30657</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1">
-        <v>30655</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I5">
+        <v>19703</v>
+      </c>
+      <c r="J5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K5">
+        <v>0.2</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="J3">
+      <c r="F6" s="1">
+        <v>30658</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6">
         <v>19703</v>
       </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3">
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
         <v>0.2</v>
       </c>
-      <c r="M3">
+      <c r="L6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1">
+        <v>30659</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1">
-        <v>30656</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I7">
+        <v>19703</v>
+      </c>
+      <c r="J7" t="s">
         <v>16</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K7">
+        <v>0.2</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="J4">
+      <c r="F8" s="1">
+        <v>30660</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8">
         <v>19703</v>
       </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4">
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8">
         <v>0.2</v>
       </c>
-      <c r="M4">
+      <c r="L8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1">
+        <v>30661</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1">
-        <v>30657</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I9">
+        <v>19703</v>
+      </c>
+      <c r="J9" t="s">
         <v>16</v>
       </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5">
-        <v>19703</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5">
+      <c r="K9">
         <v>0.2</v>
       </c>
-      <c r="M5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="1">
-        <v>30658</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6">
-        <v>19703</v>
-      </c>
-      <c r="K6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6">
-        <v>0.2</v>
-      </c>
-      <c r="M6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="1">
-        <v>30659</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7">
-        <v>19703</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7">
-        <v>0.2</v>
-      </c>
-      <c r="M7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="1">
-        <v>30660</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8">
-        <v>19703</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8">
-        <v>0.2</v>
-      </c>
-      <c r="M8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="1">
-        <v>30661</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9">
-        <v>19703</v>
-      </c>
-      <c r="K9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9">
-        <v>0.2</v>
-      </c>
-      <c r="M9">
-        <v>22</v>
+      <c r="L9" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -817,7 +813,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -835,45 +831,38 @@
     <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
       <c r="B4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3"/>
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/TestData/Controller.xlsx
+++ b/src/main/java/TestData/Controller.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="15960" windowHeight="5172"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="15960" windowHeight="5172" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Detailpage" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="37">
   <si>
     <t>Title</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>ShipingOffer</t>
-  </si>
-  <si>
     <t>LCD Screen For Iphone 6 Black/White</t>
   </si>
   <si>
@@ -57,24 +54,9 @@
     <t>LCD Screen For Iphone 8 Plus Black/White</t>
   </si>
   <si>
-    <t>CateGoryName</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>No Brand</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Condition</t>
   </si>
   <si>
-    <t>Weight</t>
-  </si>
-  <si>
     <t>New</t>
   </si>
   <si>
@@ -133,6 +115,18 @@
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>'302-219-4645</t>
+  </si>
+  <si>
+    <t>19703</t>
+  </si>
+  <si>
+    <t>302-219-4645</t>
   </si>
 </sst>
 </file>
@@ -168,9 +162,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -473,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,15 +477,15 @@
     <col min="3" max="3" width="37.6640625" customWidth="1"/>
     <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -504,305 +497,221 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2">
+        <v>19703</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>19703</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>19703</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>19703</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>19703</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>19703</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1">
-        <v>30654</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
         <v>19703</v>
       </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2">
-        <v>0.2</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="H8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1">
-        <v>30655</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3">
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
         <v>19703</v>
       </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3">
-        <v>0.2</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1">
-        <v>30656</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4">
-        <v>19703</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4">
-        <v>0.2</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1">
-        <v>30657</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5">
-        <v>19703</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5">
-        <v>0.2</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1">
-        <v>30658</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6">
-        <v>19703</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6">
-        <v>0.2</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1">
-        <v>30659</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7">
-        <v>19703</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7">
-        <v>0.2</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1">
-        <v>30660</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8">
-        <v>19703</v>
-      </c>
-      <c r="J8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8">
-        <v>0.2</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1">
-        <v>30661</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9">
-        <v>19703</v>
-      </c>
-      <c r="J9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9">
-        <v>0.2</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>38</v>
+      <c r="H9" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -813,54 +722,101 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.21875" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="54.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -870,12 +826,98 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>